--- a/excel_with_subclasses/without_zeros/oblast_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/oblast_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q18285142</t>
@@ -500,9 +500,6 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>76</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -514,9 +511,6 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -528,9 +522,6 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -542,9 +533,6 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -556,9 +544,6 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -570,9 +555,6 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -584,9 +566,6 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -598,9 +577,6 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -612,9 +588,6 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -626,9 +599,6 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -640,9 +610,6 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -653,9 +620,6 @@
       </c>
       <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
